--- a/data/trans_camb/P54_A_6_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_6_R-Urba-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>43,14</t>
+          <t>51,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>37,4</t>
+          <t>41,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>39,62</t>
+          <t>41,12</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>43,4</t>
+          <t>42,51</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>41,37</t>
+          <t>46,07</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>40,64</t>
+          <t>41,97</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>34,55; 51,28</t>
+          <t>40,6; 61,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>29,69; 45,77</t>
+          <t>30,07; 52,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,74; 46,84</t>
+          <t>31,91; 49,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>36,3; 49,26</t>
+          <t>33,02; 50,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>35,65; 46,67</t>
+          <t>38,88; 52,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>35,49; 45,93</t>
+          <t>34,77; 48,38</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>138,08%</t>
+          <t>190,89%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>119,71%</t>
+          <t>152,37%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>95,99%</t>
+          <t>97,57%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>105,15%</t>
+          <t>100,86%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>113,19%</t>
+          <t>131,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>111,21%</t>
+          <t>119,98%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>97,26; 199,91</t>
+          <t>121,25; 290,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>83,83; 176,71</t>
+          <t>93,41; 248,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>68,2; 128,65</t>
+          <t>66,38; 137,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>77,83; 134,02</t>
+          <t>68,59; 140,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>88,88; 139,35</t>
+          <t>98,49; 173,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>89,44; 138,48</t>
+          <t>87,76; 158,13</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>32,32</t>
+          <t>44,39</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>37,0</t>
+          <t>38,62</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>41,85</t>
+          <t>39,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>47,91</t>
+          <t>44,77</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>37,28</t>
+          <t>41,88</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>42,58</t>
+          <t>41,66</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,06; 42,86</t>
+          <t>30,73; 55,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27,15; 45,77</t>
+          <t>25,9; 49,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>33,6; 49,69</t>
+          <t>28,62; 49,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>39,43; 54,87</t>
+          <t>34,48; 53,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,81; 44,15</t>
+          <t>34,09; 48,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>35,97; 48,78</t>
+          <t>33,74; 48,7</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>82,96%</t>
+          <t>132,52%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>94,96%</t>
+          <t>115,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>106,62%</t>
+          <t>101,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>122,05%</t>
+          <t>113,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>95,32%</t>
+          <t>114,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>108,85%</t>
+          <t>113,76%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,85; 128,23</t>
+          <t>75,91; 201,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>59,91; 140,81</t>
+          <t>64,57; 183,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75,12; 147,82</t>
+          <t>62,42; 152,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>86,06; 164,07</t>
+          <t>74,91; 165,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>67,94; 124,59</t>
+          <t>81,83; 152,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>83,4; 140,85</t>
+          <t>82,01; 151,03</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>44,04</t>
+          <t>48,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>35,57</t>
+          <t>38,49</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>40,46</t>
+          <t>41,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>36,76</t>
+          <t>34,98</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>42,45</t>
+          <t>45,17</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>36,3</t>
+          <t>36,79</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,93; 61,73</t>
+          <t>11,11; 74,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,95; 54,59</t>
+          <t>-2,76; 65,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,96; 55,63</t>
+          <t>20,04; 60,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19,69; 53,05</t>
+          <t>12,75; 56,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,09; 54,49</t>
+          <t>21,23; 60,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,51; 47,7</t>
+          <t>16,12; 55,07</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>123,85%</t>
+          <t>112,73%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>100,01%</t>
+          <t>90,06%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>94,04%</t>
+          <t>91,75%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>85,43%</t>
+          <t>76,53%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>108,84%</t>
+          <t>102,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,07%</t>
+          <t>83,31%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>28,27; 274,87</t>
+          <t>13,79; 376,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,71; 230,54</t>
+          <t>-12,4; 325,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>44,0; 180,97</t>
+          <t>33,19; 196,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>37,7; 169,24</t>
+          <t>23,28; 188,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>55,62; 177,71</t>
+          <t>31,84; 195,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>39,19; 151,63</t>
+          <t>22,54; 171,06</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>38,96</t>
+          <t>48,29</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>37,14</t>
+          <t>39,77</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>40,63</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>44,53</t>
+          <t>42,72</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>39,84</t>
+          <t>44,27</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>40,96</t>
+          <t>41,3</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>31,62; 45,67</t>
+          <t>40,4; 56,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>30,35; 42,88</t>
+          <t>30,56; 47,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>34,92; 45,45</t>
+          <t>34,82; 46,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>39,92; 49,64</t>
+          <t>36,25; 48,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>35,14; 43,6</t>
+          <t>38,52; 48,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>37,11; 44,75</t>
+          <t>35,56; 45,83</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>111,99%</t>
+          <t>154,01%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>106,77%</t>
+          <t>126,84%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>99,92%</t>
+          <t>98,35%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>109,61%</t>
+          <t>103,41%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>105,3%</t>
+          <t>120,94%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>108,24%</t>
+          <t>112,82%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>82,35; 144,9</t>
+          <t>107,93; 215,15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>79,23; 137,71</t>
+          <t>83,92; 179,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>79,49; 124,2</t>
+          <t>75,61; 124,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>89,7; 134,04</t>
+          <t>79,46; 131,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>87,4; 122,6</t>
+          <t>95,18; 145,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>91,4; 126,96</t>
+          <t>88,57; 137,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P54_A_6_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_6_R-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,319 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>51,46</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>41,08</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>41,12</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>42,51</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>46,07</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>41,97</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>51.64080983003412</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>40.48227738886639</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>41.8455526004085</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>42.53451258767446</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>46.54779399259394</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>41.84103637022528</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>40,6; 61,29</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>30,07; 52,17</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>31,91; 49,36</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>33,02; 50,14</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>38,88; 52,67</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>34,77; 48,38</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>40.75707321739258</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>29.83634625670641</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>32.76175601397666</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>33.10750938755551</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>39.4945371347061</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>34.50106443795234</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>190,89%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>152,37%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>97,57%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>100,86%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>131,7%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>119,98%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>61.48028551580882</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>51.99557031020466</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>49.99235552302847</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>50.43040358258446</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>53.16092837177193</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>48.43179128875491</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>121,25; 290,31</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>93,41; 248,09</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>66,38; 137,99</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>68,59; 140,26</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>98,49; 173,12</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>87,76; 158,13</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>1.915566114346054</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>1.501651098286401</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.9929016253596763</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>1.009249109110135</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>1.330703109670803</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.19614685109603</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>44,39</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>38,62</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>39,73</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>44,77</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>41,88</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>41,66</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>1.222289133124763</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.9226153660152207</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.686203630056204</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.6878862939338023</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>1.002160963869151</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.87623633446631</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>30,73; 55,14</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>25,9; 49,86</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>28,62; 49,18</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>34,48; 53,99</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>34,09; 48,99</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>33,74; 48,7</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>2.91475149201639</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>2.48912045988448</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1.406763891989534</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.408413447724393</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.747326110265762</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.574826114526591</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>132,52%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>115,29%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>101,08%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>113,89%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>114,36%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>113,76%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>43.72659324464082</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>38.46672489702753</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>39.76499021014154</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>45.2943593851843</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>41.5588690416911</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>41.80249830734809</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>75,91; 201,38</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>64,57; 183,3</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>62,42; 152,32</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>74,91; 165,41</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>81,83; 152,87</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>82,01; 151,03</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>30.01424360434441</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>26.20918817165506</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>28.62873421285076</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>34.99634080386782</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>33.75657626734767</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>33.88820888419649</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>48,18</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>38,49</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>41,94</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>34,98</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>45,17</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>36,79</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>54.92241720394914</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>49.87591331447024</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>49.2984965436304</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>54.39164779964499</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>48.87510692815855</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>48.93329001701828</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>11,11; 74,55</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,76; 65,77</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>20,04; 60,21</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>12,75; 56,51</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>21,23; 60,66</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>16,12; 55,07</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>1.305446562628258</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>1.148414501707059</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>1.011592575053048</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>1.152255725544002</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>1.134737080087609</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.141389213986107</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>112,73%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>90,06%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>91,75%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>76,53%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>102,28%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>83,31%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.7262177470140875</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.6592075015407336</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.6251212896406819</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.7634342971205963</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.8205181405077892</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.8225284010898207</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>13,79; 376,6</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-12,4; 325,16</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>33,19; 196,4</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>23,28; 188,35</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>31,84; 195,03</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>22,54; 171,06</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>1.986895372868732</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>1.817490839388608</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>1.529943775625597</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1.668030059847952</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.539625380359833</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.514230210611659</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,153 +928,317 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>48,29</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>39,77</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>40,63</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>42,72</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>44,27</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>41,3</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>46.96954637205047</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>37.40451543383652</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>42.79515611225085</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>35.90528549413053</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>44.92448977886276</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>36.74513326164385</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>40,4; 56,07</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>30,56; 47,38</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>34,82; 46,56</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>36,25; 48,29</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>38,52; 48,74</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>35,56; 45,83</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>8.87546447252649</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-3.622925495625458</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>21.13740241875024</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>13.78028866038491</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>20.76129045127537</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>15.94171767236671</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>154,01%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>126,84%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>98,35%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>103,41%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>120,94%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>112,82%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>74.2068420830491</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>64.81622364244546</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>60.68467327432084</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>56.77778760540181</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>60.30448090615662</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>55.18636566511331</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>107,93; 215,15</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>83,92; 179,8</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>75,61; 124,6</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>79,46; 131,3</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>95,18; 145,8</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>88,57; 137,25</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>1.098943109901119</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.8751507666181069</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.9362976564464234</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0.7855570049566997</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>1.017216966848496</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.8320133002476432</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>0.09493792038265579</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.1532213938479836</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.3471094065363194</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>0.2415947908662682</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0.3224649093893611</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>0.2361686850152608</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>3.715517743987335</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>3.257538997589777</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>1.969620164572384</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>1.872479630140474</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>1.929132636835569</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>1.712891930201531</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>47.81615066673834</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>39.35047558735174</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>41.15234993471136</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>43.02307366995875</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>44.31381978998554</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>41.30090081350159</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>39.29819525840304</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>30.02519676674175</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>35.34384117624052</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>36.57099180355965</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>38.63338668470283</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>35.56778580528071</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>55.36882855410353</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>46.947626946866</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>47.10629084900779</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>48.60510519041748</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>49.10833556940126</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>45.92979183298712</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>1.525120605378985</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>1.255103564651424</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.9960852714597923</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>1.041365804955607</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>1.210629702316637</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>1.128318377748106</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>1.065905913559365</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.8209328255194954</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>0.7729671988016437</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>0.7966314522443101</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>0.9631502142804975</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>0.8891022571624467</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>2.13282278992664</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>1.770675006051994</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>1.272058474033142</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>1.321099644739344</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>1.465713727654398</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>1.375805386892042</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1221,14 +1246,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
